--- a/biology/Zoologie/Chamoisé_boréal/Chamoisé_boréal.xlsx
+++ b/biology/Zoologie/Chamoisé_boréal/Chamoisé_boréal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chamois%C3%A9_bor%C3%A9al</t>
+          <t>Chamoisé_boréal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oeneis bore
 Le Chamoisé boréal ou Nordique à nervures blanches (Oeneis bore) est une espèce d'insectes lépidoptères (papillons) appartenant à la famille des Nymphalidae à la sous-famille des Satyrinae et au genre Oeneis.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chamois%C3%A9_bor%C3%A9al</t>
+          <t>Chamoisé_boréal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,49 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été nommée Oeneis bore par Johann Gottlob Schneider en 1792.
-Synonymes : Papilio bore Schneider, 1792[1].
-Sous-espèces
-Oeneis bore bore
+Synonymes : Papilio bore Schneider, 1792.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chamoisé_boréal</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamois%C3%A9_bor%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Oeneis bore bore
 Oeneis bore arasaguna Austaut, 1911 ;
 Oeneis bore edwardsi dos Passos, 1949 ;
 Oeneis bore fordi dos Passos, 1949 ;
@@ -526,44 +575,7 @@
 Oeneis bore mackinleyensis dos Passos, 1949 ;
 Oeneis bore pansa Christoph, 1893 ;
 Oeneis bore patrushevae Korshunov, 1985 ;
-Oeneis bore taygete Geyer, [1830] le White-veined Arctic qui pourrait être une espèce distincte[1].
-Noms vernaculaires
-Le Chamoisé boréal se nomme Nordique à nervures blanches au Canada, Vidderingvinge en norvégien, Arctic Grayling en anglais et sa sous-espèce Oeneis bore taygete White-veined Arctic[1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chamois%C3%A9_bor%C3%A9al</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chamois%C3%A9_bor%C3%A9al</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Chamoisé boréal est un petit papillon de couleur marron clair plus ou moins translucide.
-Le revers des antérieures est semblable marron clair uni, celui des postérieures est de différents tons de marron formant une bande médiane plus foncée, et les nervures sont surlignées de blanc, en particulier chez les sous-espèces d'Amérique[2].
-Chenille
-Elle est marron clair avec une ligne longitudinale marron sur le dos et des lignes marron foncé sur les côtés[2].
-</t>
+Oeneis bore taygete Geyer,  le White-veined Arctic qui pourrait être une espèce distincte.</t>
         </is>
       </c>
     </row>
@@ -573,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chamois%C3%A9_bor%C3%A9al</t>
+          <t>Chamoisé_boréal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,16 +600,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Le Chamoisé boréal vole en une génération entre mi-juin et fin juillet[3].
-Le développement larvaire nécessite deux cycles saisonniers.
-Plantes hôtes
-Sa plante hôte est Festuca ovina et au Canada Carex misandra, Festuca mibra, Festuca brachyphylla et Festuca vivipara[1],[3],[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Chamoisé boréal se nomme Nordique à nervures blanches au Canada, Vidderingvinge en norvégien, Arctic Grayling en anglais et sa sous-espèce Oeneis bore taygete White-veined Arctic.
 </t>
         </is>
       </c>
@@ -608,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chamois%C3%A9_bor%C3%A9al</t>
+          <t>Chamoisé_boréal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,16 +637,234 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Chamoisé boréal est un petit papillon de couleur marron clair plus ou moins translucide.
+Le revers des antérieures est semblable marron clair uni, celui des postérieures est de différents tons de marron formant une bande médiane plus foncée, et les nervures sont surlignées de blanc, en particulier chez les sous-espèces d'Amérique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chamoisé_boréal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamois%C3%A9_bor%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est marron clair avec une ligne longitudinale marron sur le dos et des lignes marron foncé sur les côtés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chamoisé_boréal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamois%C3%A9_bor%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Chamoisé boréal vole en une génération entre mi-juin et fin juillet.
+Le développement larvaire nécessite deux cycles saisonniers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chamoisé_boréal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamois%C3%A9_bor%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa plante hôte est Festuca ovina et au Canada Carex misandra, Festuca mibra, Festuca brachyphylla et Festuca vivipara.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chamoisé_boréal</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamois%C3%A9_bor%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Chamoisé boréal est un lépidoptère endémique de l'Arctique présent dans la Scandinavie arctique, l'Oural et la Sibérie polaires, la péninsule Choukote et le nord de l'Amérique du Nord, dans la toundra arctique de l'Alaska et du Canada et un isolat dans les montagnes rocheuses[3].
-Biotope
-Elle réside dans les lieux herbus tourbeux.
-Protection
-Pas de statut de protection particulier[4].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Chamoisé boréal est un lépidoptère endémique de l'Arctique présent dans la Scandinavie arctique, l'Oural et la Sibérie polaires, la péninsule Choukote et le nord de l'Amérique du Nord, dans la toundra arctique de l'Alaska et du Canada et un isolat dans les montagnes rocheuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chamoisé_boréal</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamois%C3%A9_bor%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle réside dans les lieux herbus tourbeux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chamoisé_boréal</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamois%C3%A9_bor%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
